--- a/src/main/resources/excel/环境卫生-建筑垃圾监管.xlsx
+++ b/src/main/resources/excel/环境卫生-建筑垃圾监管.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\src_test\execl-to-sql\excel\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFD47BF1-7043-4CA0-971E-9B47440C64F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B2B1EE4-6D78-487E-9D07-4F28BA28AFB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="23010" windowHeight="14520" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="环境卫生-建筑垃圾监管-运输企业" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="354">
   <si>
     <t>字段名称</t>
   </si>
@@ -268,8 +268,117 @@
     <t>QYLX</t>
   </si>
   <si>
-    <r>
-      <t>1</t>
+    <t>注册资金</t>
+  </si>
+  <si>
+    <t>ZCZJ</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>单位：万元</t>
+  </si>
+  <si>
+    <t>法定代表人</t>
+  </si>
+  <si>
+    <t>FDDBR</t>
+  </si>
+  <si>
+    <t>法人电话</t>
+  </si>
+  <si>
+    <t>FRDH</t>
+  </si>
+  <si>
+    <t>注册地址</t>
+  </si>
+  <si>
+    <t>ZCDZ</t>
+  </si>
+  <si>
+    <r>
+      <t>坐标</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>X</t>
+    </r>
+  </si>
+  <si>
+    <t>ZBX</t>
+  </si>
+  <si>
+    <r>
+      <t>坐标</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Y</t>
+    </r>
+  </si>
+  <si>
+    <t>ZBY</t>
+  </si>
+  <si>
+    <t>违规情况</t>
+  </si>
+  <si>
+    <t>WGQK</t>
+  </si>
+  <si>
+    <t>奖惩情况</t>
+  </si>
+  <si>
+    <t>JCQK</t>
+  </si>
+  <si>
+    <t>所属企业</t>
+  </si>
+  <si>
+    <t>SSQY</t>
+  </si>
+  <si>
+    <t>所属企业统一社会信用代码</t>
+  </si>
+  <si>
+    <t>SSQYTYSHXYDM</t>
+  </si>
+  <si>
+    <t>驾驶员姓名</t>
+  </si>
+  <si>
+    <t>JSYXM</t>
+  </si>
+  <si>
+    <t>性别</t>
+  </si>
+  <si>
+    <t>XB</t>
+  </si>
+  <si>
+    <r>
+      <t>参照《</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>GB 2261-1980</t>
     </r>
     <r>
       <rPr>
@@ -279,12 +388,24 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>：独资公司；</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
+      <t>人的性别代码》</t>
+    </r>
+  </si>
+  <si>
+    <t>出生日期</t>
+  </si>
+  <si>
+    <t>CSRQ</t>
+  </si>
+  <si>
+    <t>证件类型</t>
+  </si>
+  <si>
+    <t>ZJLX</t>
+  </si>
+  <si>
+    <r>
+      <t>01</t>
     </r>
     <r>
       <rPr>
@@ -294,12 +415,12 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>：合资公司；</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
+      <t>：居民身份证；</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>08</t>
     </r>
     <r>
       <rPr>
@@ -309,12 +430,12 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>：国有公司；</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>4</t>
+      <t>：护照；</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
     </r>
     <r>
       <rPr>
@@ -324,12 +445,12 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>：私营公司；</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
+      <t>：港澳居民来往内地通行证；</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>12</t>
     </r>
     <r>
       <rPr>
@@ -339,12 +460,12 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>：全民所有制公司；</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>6</t>
+      <t>：台湾居民来往大陆通行证；</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>27</t>
     </r>
     <r>
       <rPr>
@@ -354,12 +475,33 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>：集体所有制公司；</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>7</t>
+      <t>：外国人永久居留身份证</t>
+    </r>
+  </si>
+  <si>
+    <t>证件号码</t>
+  </si>
+  <si>
+    <t>ZJHM</t>
+  </si>
+  <si>
+    <t>民族</t>
+  </si>
+  <si>
+    <t>MZ</t>
+  </si>
+  <si>
+    <r>
+      <t>参照《</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>GB/T 3304</t>
     </r>
     <r>
       <rPr>
@@ -369,12 +511,266 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>：股份制公司；</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>8</t>
+      <t>中华人民共和国民族代码》</t>
+    </r>
+  </si>
+  <si>
+    <t>驾驶证号</t>
+  </si>
+  <si>
+    <t>JSZH</t>
+  </si>
+  <si>
+    <t>年龄</t>
+  </si>
+  <si>
+    <t>NL</t>
+  </si>
+  <si>
+    <t>驾龄</t>
+  </si>
+  <si>
+    <t>JL</t>
+  </si>
+  <si>
+    <t>驾驶员联系电话</t>
+  </si>
+  <si>
+    <t>JSYLXDH</t>
+  </si>
+  <si>
+    <t>从业资格证编号</t>
+  </si>
+  <si>
+    <t>CYZGZBH</t>
+  </si>
+  <si>
+    <t>从业资格证照片</t>
+  </si>
+  <si>
+    <t>CYZGZZP</t>
+  </si>
+  <si>
+    <t>标识码</t>
+  </si>
+  <si>
+    <t>BSM</t>
+  </si>
+  <si>
+    <t>项目编号</t>
+  </si>
+  <si>
+    <t>XMBH</t>
+  </si>
+  <si>
+    <t>项目名称</t>
+  </si>
+  <si>
+    <t>XMMC</t>
+  </si>
+  <si>
+    <t>项目性质</t>
+  </si>
+  <si>
+    <t>XMXZ</t>
+  </si>
+  <si>
+    <t>消纳方式</t>
+  </si>
+  <si>
+    <t>XNFS</t>
+  </si>
+  <si>
+    <t>设计建筑面积</t>
+  </si>
+  <si>
+    <t>SJJZMJ</t>
+  </si>
+  <si>
+    <r>
+      <t>单位：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>地基挖方量</t>
+  </si>
+  <si>
+    <t>DJWFL</t>
+  </si>
+  <si>
+    <r>
+      <t>单位：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <t>挖槽土运出量</t>
+  </si>
+  <si>
+    <t>WCTYCL</t>
+  </si>
+  <si>
+    <t>建筑垃圾产生量</t>
+  </si>
+  <si>
+    <t>JZLJCSL</t>
+  </si>
+  <si>
+    <r>
+      <t>单位：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>t</t>
+    </r>
+  </si>
+  <si>
+    <t>可回收废物产生量</t>
+  </si>
+  <si>
+    <t>KHSFWCSL</t>
+  </si>
+  <si>
+    <t>拆除建筑物面积</t>
+  </si>
+  <si>
+    <t>CCJJWMJ</t>
+  </si>
+  <si>
+    <t>拆除建筑垃圾产生量</t>
+  </si>
+  <si>
+    <t>CCJJLJCSL</t>
+  </si>
+  <si>
+    <t>装修垃圾产生量</t>
+  </si>
+  <si>
+    <t>ZXLJCSL</t>
+  </si>
+  <si>
+    <t>拆除可回收废物量</t>
+  </si>
+  <si>
+    <t>CCKHSFWL</t>
+  </si>
+  <si>
+    <t>总覆盖面积</t>
+  </si>
+  <si>
+    <t>ZFGMJ</t>
+  </si>
+  <si>
+    <t>总挖掘体积</t>
+  </si>
+  <si>
+    <t>ZWJTJ</t>
+  </si>
+  <si>
+    <t>废物体积</t>
+  </si>
+  <si>
+    <t>FWTJ</t>
+  </si>
+  <si>
+    <t>残留体积</t>
+  </si>
+  <si>
+    <t>CLTJ</t>
+  </si>
+  <si>
+    <t>预估费用</t>
+  </si>
+  <si>
+    <t>YGFY</t>
+  </si>
+  <si>
+    <t>单位：元</t>
+  </si>
+  <si>
+    <t>交易场所名称</t>
+  </si>
+  <si>
+    <t>JYCSMC</t>
+  </si>
+  <si>
+    <t>交易场所类型</t>
+  </si>
+  <si>
+    <t>JYCSLX</t>
+  </si>
+  <si>
+    <t>运输结束时间</t>
+  </si>
+  <si>
+    <t>YSJSSJ</t>
+  </si>
+  <si>
+    <t>运输开始时间</t>
+  </si>
+  <si>
+    <t>YSKSSJ</t>
+  </si>
+  <si>
+    <t>处理设施标识码</t>
+  </si>
+  <si>
+    <t>CLSSBSM</t>
+  </si>
+  <si>
+    <r>
+      <t>见表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>115</t>
     </r>
     <r>
       <rPr>
@@ -384,42 +780,156 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>：有限责任公司</t>
-    </r>
-  </si>
-  <si>
-    <t>注册资金</t>
-  </si>
-  <si>
-    <t>ZCZJ</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>单位：万元</t>
-  </si>
-  <si>
-    <t>法定代表人</t>
-  </si>
-  <si>
-    <t>FDDBR</t>
-  </si>
-  <si>
-    <t>法人电话</t>
-  </si>
-  <si>
-    <t>FRDH</t>
-  </si>
-  <si>
-    <t>注册地址</t>
-  </si>
-  <si>
-    <t>ZCDZ</t>
-  </si>
-  <si>
-    <r>
-      <t>坐标</t>
+      <t>建筑垃圾处理设施主要数据项标识码</t>
+    </r>
+  </si>
+  <si>
+    <t>清运备案有效期起</t>
+  </si>
+  <si>
+    <t>QYBAYXQQ</t>
+  </si>
+  <si>
+    <t>清运备案有效期止</t>
+  </si>
+  <si>
+    <t>QYBAYXQZ</t>
+  </si>
+  <si>
+    <t>清运备案许可证照片</t>
+  </si>
+  <si>
+    <t>QYBAXKZZP</t>
+  </si>
+  <si>
+    <t>建设单位</t>
+  </si>
+  <si>
+    <t>JSDW</t>
+  </si>
+  <si>
+    <t>建设单位联系人</t>
+  </si>
+  <si>
+    <t>JSDWLXR</t>
+  </si>
+  <si>
+    <t>建设单位联系人电话</t>
+  </si>
+  <si>
+    <t>JSDWLXRDH</t>
+  </si>
+  <si>
+    <t>施工单位</t>
+  </si>
+  <si>
+    <t>SGDW</t>
+  </si>
+  <si>
+    <t>施工单位联系人</t>
+  </si>
+  <si>
+    <t>SGDWLXR</t>
+  </si>
+  <si>
+    <t>施工单位联系电话</t>
+  </si>
+  <si>
+    <t>SGDWLXRDH</t>
+  </si>
+  <si>
+    <t>地址</t>
+  </si>
+  <si>
+    <t>DZ</t>
+  </si>
+  <si>
+    <t>备案行驶路线</t>
+  </si>
+  <si>
+    <t>BASSLX</t>
+  </si>
+  <si>
+    <t>建设状态</t>
+  </si>
+  <si>
+    <t>JSZT</t>
+  </si>
+  <si>
+    <t>建筑垃圾产生类型</t>
+  </si>
+  <si>
+    <t>JZLJCSLX</t>
+  </si>
+  <si>
+    <t>每日清运时间</t>
+  </si>
+  <si>
+    <t>MRQYSJ</t>
+  </si>
+  <si>
+    <t>项目开始日期</t>
+  </si>
+  <si>
+    <t>XMKSSJ</t>
+  </si>
+  <si>
+    <t>项目结束日期</t>
+  </si>
+  <si>
+    <t>XMJSSJ</t>
+  </si>
+  <si>
+    <t>清运备案处置核准证编号</t>
+  </si>
+  <si>
+    <t>QYBACZHZZBH</t>
+  </si>
+  <si>
+    <t>备案行驶路线坐标</t>
+  </si>
+  <si>
+    <t>BYXSLXZB</t>
+  </si>
+  <si>
+    <t>消纳点地址</t>
+  </si>
+  <si>
+    <t>XNDDZ</t>
+  </si>
+  <si>
+    <t>统一社会信用代码</t>
+  </si>
+  <si>
+    <t>TYSHXYDM</t>
+  </si>
+  <si>
+    <t>建成时间</t>
+  </si>
+  <si>
+    <t>JCSJ</t>
+  </si>
+  <si>
+    <t>收纳建筑垃圾种类、再生产品类型</t>
+  </si>
+  <si>
+    <t>SNJZLJZLZSCPLX</t>
+  </si>
+  <si>
+    <t>工作人员数</t>
+  </si>
+  <si>
+    <t>GZRYS</t>
+  </si>
+  <si>
+    <t>处理场占地面积</t>
+  </si>
+  <si>
+    <t>CLCZDMJ</t>
+  </si>
+  <si>
+    <r>
+      <t>单位：万</t>
     </r>
     <r>
       <rPr>
@@ -428,68 +938,28 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>X</t>
-    </r>
-  </si>
-  <si>
-    <t>ZBX</t>
-  </si>
-  <si>
-    <r>
-      <t>坐标</t>
-    </r>
-    <r>
-      <rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>Y</t>
-    </r>
-  </si>
-  <si>
-    <t>ZBY</t>
-  </si>
-  <si>
-    <t>违规情况</t>
-  </si>
-  <si>
-    <t>WGQK</t>
-  </si>
-  <si>
-    <t>奖惩情况</t>
-  </si>
-  <si>
-    <t>JCQK</t>
-  </si>
-  <si>
-    <t>所属企业</t>
-  </si>
-  <si>
-    <t>SSQY</t>
-  </si>
-  <si>
-    <t>所属企业统一社会信用代码</t>
-  </si>
-  <si>
-    <t>SSQYTYSHXYDM</t>
-  </si>
-  <si>
-    <t>驾驶员姓名</t>
-  </si>
-  <si>
-    <t>JSYXM</t>
-  </si>
-  <si>
-    <t>性别</t>
-  </si>
-  <si>
-    <t>XB</t>
-  </si>
-  <si>
-    <r>
-      <t>参照《</t>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>收纳容量</t>
+  </si>
+  <si>
+    <t>SNRL</t>
+  </si>
+  <si>
+    <r>
+      <t>单位：万</t>
     </r>
     <r>
       <rPr>
@@ -498,7 +968,28 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>GB 2261-1980</t>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <t>运行状态</t>
+  </si>
+  <si>
+    <t>YXZT</t>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
     </r>
     <r>
       <rPr>
@@ -508,24 +999,16 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>人的性别代码》</t>
-    </r>
-  </si>
-  <si>
-    <t>出生日期</t>
-  </si>
-  <si>
-    <t>CSRQ</t>
-  </si>
-  <si>
-    <t>证件类型</t>
-  </si>
-  <si>
-    <t>ZJLX</t>
-  </si>
-  <si>
-    <r>
-      <t>01</t>
+      <t>：停运；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
     </r>
     <r>
       <rPr>
@@ -535,12 +1018,54 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>：居民身份证；</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>08</t>
+      <t>：正常</t>
+    </r>
+  </si>
+  <si>
+    <t>运营单位</t>
+  </si>
+  <si>
+    <t>YYDW</t>
+  </si>
+  <si>
+    <t>经营年限起</t>
+  </si>
+  <si>
+    <t>JYNXQ</t>
+  </si>
+  <si>
+    <t>经营年限止</t>
+  </si>
+  <si>
+    <t>JYNXZ</t>
+  </si>
+  <si>
+    <t>经营单位法人</t>
+  </si>
+  <si>
+    <t>JYDWFR</t>
+  </si>
+  <si>
+    <t>经营负责人</t>
+  </si>
+  <si>
+    <t>JYFZR</t>
+  </si>
+  <si>
+    <t>经营负责人电话</t>
+  </si>
+  <si>
+    <t>JYFZRDH</t>
+  </si>
+  <si>
+    <t>是否封场</t>
+  </si>
+  <si>
+    <t>SFFC</t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
     </r>
     <r>
       <rPr>
@@ -550,12 +1075,16 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>：护照；</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>10</t>
+      <t>：否</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
     </r>
     <r>
       <rPr>
@@ -565,12 +1094,33 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>：港澳居民来往内地通行证；</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>12</t>
+      <t>：是</t>
+    </r>
+  </si>
+  <si>
+    <t>正式投运日期</t>
+  </si>
+  <si>
+    <t>ZSTYRQ</t>
+  </si>
+  <si>
+    <t>建设规模</t>
+  </si>
+  <si>
+    <t>JSGM</t>
+  </si>
+  <si>
+    <r>
+      <t>单位：万</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>t/</t>
     </r>
     <r>
       <rPr>
@@ -580,12 +1130,18 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>：台湾居民来往大陆通行证；</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>27</t>
+      <t>年</t>
+    </r>
+  </si>
+  <si>
+    <t>处理工艺</t>
+  </si>
+  <si>
+    <t>CLGY</t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
     </r>
     <r>
       <rPr>
@@ -595,33 +1151,12 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>：外国人永久居留身份证</t>
-    </r>
-  </si>
-  <si>
-    <t>证件号码</t>
-  </si>
-  <si>
-    <t>ZJHM</t>
-  </si>
-  <si>
-    <t>民族</t>
-  </si>
-  <si>
-    <t>MZ</t>
-  </si>
-  <si>
-    <r>
-      <t>参照《</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>GB/T 3304</t>
+      <t>：消纳；</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
     </r>
     <r>
       <rPr>
@@ -631,68 +1166,78 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>中华人民共和国民族代码》</t>
-    </r>
-  </si>
-  <si>
-    <t>驾驶证号</t>
-  </si>
-  <si>
-    <t>JSZH</t>
-  </si>
-  <si>
-    <t>年龄</t>
-  </si>
-  <si>
-    <t>NL</t>
-  </si>
-  <si>
-    <t>驾龄</t>
-  </si>
-  <si>
-    <t>JL</t>
-  </si>
-  <si>
-    <t>驾驶员联系电话</t>
-  </si>
-  <si>
-    <t>JSYLXDH</t>
-  </si>
-  <si>
-    <t>从业资格证编号</t>
-  </si>
-  <si>
-    <t>CYZGZBH</t>
-  </si>
-  <si>
-    <t>从业资格证照片</t>
-  </si>
-  <si>
-    <t>CYZGZZP</t>
-  </si>
-  <si>
-    <t>标识码</t>
-  </si>
-  <si>
-    <t>BSM</t>
-  </si>
-  <si>
-    <t>项目编号</t>
-  </si>
-  <si>
-    <t>XMBH</t>
-  </si>
-  <si>
-    <t>项目名称</t>
-  </si>
-  <si>
-    <t>XMMC</t>
-  </si>
-  <si>
-    <t>项目性质</t>
-  </si>
-  <si>
-    <t>XMXZ</t>
+      <t>：资源化利用</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>实际年均处理量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>SJNJCLL</t>
+  </si>
+  <si>
+    <r>
+      <t>单位：万</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>t</t>
+    </r>
+  </si>
+  <si>
+    <t>年均产生量</t>
+  </si>
+  <si>
+    <t>NJCSL</t>
+  </si>
+  <si>
+    <t>设计库容</t>
+  </si>
+  <si>
+    <t>SJKR</t>
+  </si>
+  <si>
+    <t>已用库容</t>
+  </si>
+  <si>
+    <t>YYKL</t>
+  </si>
+  <si>
+    <t>实际库容</t>
+  </si>
+  <si>
+    <t>SHIJKR</t>
+  </si>
+  <si>
+    <t>消纳率或利用率</t>
+  </si>
+  <si>
+    <t>XNLHLYL</t>
+  </si>
+  <si>
+    <t>处理工艺为消纳，显示消纳率；处理工艺为资源化利用，显示利用率</t>
+  </si>
+  <si>
+    <t>建设模式</t>
+  </si>
+  <si>
+    <t>JSMS</t>
   </si>
   <si>
     <r>
@@ -706,7 +1251,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>：新建；</t>
+      <t>：政府购买服务；</t>
     </r>
   </si>
   <si>
@@ -721,12 +1266,16 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>：扩建；</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>PPP</t>
     </r>
     <r>
       <rPr>
@@ -736,12 +1285,12 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>：改建；</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>4</t>
+      <t>；</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
     </r>
     <r>
       <rPr>
@@ -751,12 +1300,39 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>：迁建；</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
+      <t>：政府投资</t>
+    </r>
+  </si>
+  <si>
+    <t>车牌号</t>
+  </si>
+  <si>
+    <t>CPH</t>
+  </si>
+  <si>
+    <t>车辆所属企业</t>
+  </si>
+  <si>
+    <t>CLSSQY</t>
+  </si>
+  <si>
+    <t>建筑垃圾产生源标识码</t>
+  </si>
+  <si>
+    <t>JZLJCSYBSM</t>
+  </si>
+  <si>
+    <r>
+      <t>见表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>113</t>
     </r>
     <r>
       <rPr>
@@ -766,18 +1342,234 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>：恢复</t>
-    </r>
-  </si>
-  <si>
-    <t>消纳方式</t>
-  </si>
-  <si>
-    <t>XNFS</t>
+      <t>建筑垃圾产生源主要数据项标识码标识码</t>
+    </r>
+  </si>
+  <si>
+    <t>出场时间</t>
+  </si>
+  <si>
+    <t>ZZSJ</t>
+  </si>
+  <si>
+    <t>入场时间</t>
+  </si>
+  <si>
+    <t>XNSJ</t>
+  </si>
+  <si>
+    <t>运输量</t>
+  </si>
+  <si>
+    <t>YSL</t>
+  </si>
+  <si>
+    <t>轨迹对比</t>
+  </si>
+  <si>
+    <t>GJDB</t>
+  </si>
+  <si>
+    <t>轨迹说明</t>
+  </si>
+  <si>
+    <t>GJSM</t>
+  </si>
+  <si>
+    <t>SSQYTYSHX</t>
+  </si>
+  <si>
+    <t>YDM</t>
+  </si>
+  <si>
+    <t>环境卫生-建筑垃圾监管-运输企业表:hjws_jzljjg_assess</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>环境卫生-建筑垃圾监管-运输车辆表:hjws_jzljjg_vehicle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>环境卫生-建筑垃圾监管-运输司机表:hjws_jzljjg_driver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>环境卫生-建筑垃圾监管-违法处置表:hjws_jzljjg_illegal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>环境卫生-建筑垃圾监管-产生源表:hjws_jzljjg_source</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>环境卫生-建筑垃圾监管-产生源企业关联表:hjws_jzljjg_source_company</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>环境卫生-建筑垃圾监管-处理设施表:hjws_jzljjg_device</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>环境卫生-建筑垃圾监管-监控表:hjws_jzljjg_monitor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>环境卫生-建筑垃圾监管-无主垃圾源表:hjws_jzljjg_no_source</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
       <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：独资公司；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：合资公司；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：国有公司；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：私营公司；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：全民所有制公司；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：集体所有制公司；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：股份制公司；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：有限责任公司</t>
     </r>
     <r>
       <rPr>
@@ -787,12 +1579,40 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>：资源化处理；</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
+      <t>；</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>制造厂商</t>
+  </si>
+  <si>
+    <t>ZZCS</t>
+  </si>
+  <si>
+    <t>车辆型号</t>
+  </si>
+  <si>
+    <t>CLXH</t>
+  </si>
+  <si>
+    <t>车辆吨位</t>
+  </si>
+  <si>
+    <t>CLDW</t>
+  </si>
+  <si>
+    <r>
+      <t>单位：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>t</t>
     </r>
     <r>
       <rPr>
@@ -802,200 +1622,78 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>：填埋</t>
-    </r>
-  </si>
-  <si>
-    <t>设计建筑面积</t>
-  </si>
-  <si>
-    <t>SJJZMJ</t>
-  </si>
-  <si>
-    <r>
-      <t>单位：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <t>地基挖方量</t>
-  </si>
-  <si>
-    <t>DJWFL</t>
-  </si>
-  <si>
-    <r>
-      <t>单位：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>3</t>
-    </r>
-  </si>
-  <si>
-    <t>挖槽土运出量</t>
-  </si>
-  <si>
-    <t>WCTYCL</t>
-  </si>
-  <si>
-    <t>建筑垃圾产生量</t>
-  </si>
-  <si>
-    <t>JZLJCSL</t>
-  </si>
-  <si>
-    <r>
-      <t>单位：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>t</t>
-    </r>
-  </si>
-  <si>
-    <t>可回收废物产生量</t>
-  </si>
-  <si>
-    <t>KHSFWCSL</t>
-  </si>
-  <si>
-    <t>拆除建筑物面积</t>
-  </si>
-  <si>
-    <t>CCJJWMJ</t>
-  </si>
-  <si>
-    <t>拆除建筑垃圾产生量</t>
-  </si>
-  <si>
-    <t>CCJJLJCSL</t>
-  </si>
-  <si>
-    <t>装修垃圾产生量</t>
-  </si>
-  <si>
-    <t>ZXLJCSL</t>
-  </si>
-  <si>
-    <t>拆除可回收废物量</t>
-  </si>
-  <si>
-    <t>CCKHSFWL</t>
-  </si>
-  <si>
-    <t>总覆盖面积</t>
-  </si>
-  <si>
-    <t>ZFGMJ</t>
-  </si>
-  <si>
-    <t>总挖掘体积</t>
-  </si>
-  <si>
-    <t>ZWJTJ</t>
-  </si>
-  <si>
-    <t>废物体积</t>
-  </si>
-  <si>
-    <t>FWTJ</t>
-  </si>
-  <si>
-    <t>残留体积</t>
-  </si>
-  <si>
-    <t>CLTJ</t>
-  </si>
-  <si>
-    <t>预估费用</t>
-  </si>
-  <si>
-    <t>YGFY</t>
-  </si>
-  <si>
-    <t>单位：元</t>
-  </si>
-  <si>
-    <t>交易场所名称</t>
-  </si>
-  <si>
-    <t>JYCSMC</t>
-  </si>
-  <si>
-    <t>交易场所类型</t>
-  </si>
-  <si>
-    <t>JYCSLX</t>
-  </si>
-  <si>
-    <t>运输结束时间</t>
-  </si>
-  <si>
-    <t>YSJSSJ</t>
-  </si>
-  <si>
-    <t>运输开始时间</t>
-  </si>
-  <si>
-    <t>YSKSSJ</t>
-  </si>
-  <si>
-    <t>处理设施标识码</t>
-  </si>
-  <si>
-    <t>CLSSBSM</t>
-  </si>
-  <si>
-    <r>
-      <t>见表</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>115</t>
+      <t>　</t>
+    </r>
+  </si>
+  <si>
+    <t>停车场所</t>
+  </si>
+  <si>
+    <t>TCCS</t>
+  </si>
+  <si>
+    <t>工作场所</t>
+  </si>
+  <si>
+    <t>GZCS</t>
+  </si>
+  <si>
+    <t>运输处置许可证编号</t>
+  </si>
+  <si>
+    <t>YSCZXKZBH</t>
+  </si>
+  <si>
+    <t>运输处置许可证有效期结束时间</t>
+  </si>
+  <si>
+    <t>YSCZXKZYXQJSSJ</t>
+  </si>
+  <si>
+    <t>运输处置许可证有效期开始时间</t>
+  </si>
+  <si>
+    <t>YSCZXKZYXQKSSJ</t>
+  </si>
+  <si>
+    <t>车辆行驶证号</t>
+  </si>
+  <si>
+    <t>CLXSZH</t>
+  </si>
+  <si>
+    <t>载重量</t>
+  </si>
+  <si>
+    <t>ZZL</t>
+  </si>
+  <si>
+    <t>排放标准</t>
+  </si>
+  <si>
+    <t>PFBZ</t>
+  </si>
+  <si>
+    <t>车辆类型</t>
+  </si>
+  <si>
+    <t>CLLX</t>
+  </si>
+  <si>
+    <t>季度审核</t>
+  </si>
+  <si>
+    <t>JDSH</t>
+  </si>
+  <si>
+    <t>远程控制</t>
+  </si>
+  <si>
+    <t>YCKZ</t>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
     </r>
     <r>
       <rPr>
@@ -1005,83 +1703,15 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>建筑垃圾处理设施主要数据项标识码</t>
-    </r>
-  </si>
-  <si>
-    <t>清运备案有效期起</t>
-  </si>
-  <si>
-    <t>QYBAYXQQ</t>
-  </si>
-  <si>
-    <t>清运备案有效期止</t>
-  </si>
-  <si>
-    <t>QYBAYXQZ</t>
-  </si>
-  <si>
-    <t>清运备案许可证照片</t>
-  </si>
-  <si>
-    <t>QYBAXKZZP</t>
-  </si>
-  <si>
-    <t>建设单位</t>
-  </si>
-  <si>
-    <t>JSDW</t>
-  </si>
-  <si>
-    <t>建设单位联系人</t>
-  </si>
-  <si>
-    <t>JSDWLXR</t>
-  </si>
-  <si>
-    <t>建设单位联系人电话</t>
-  </si>
-  <si>
-    <t>JSDWLXRDH</t>
-  </si>
-  <si>
-    <t>施工单位</t>
-  </si>
-  <si>
-    <t>SGDW</t>
-  </si>
-  <si>
-    <t>施工单位联系人</t>
-  </si>
-  <si>
-    <t>SGDWLXR</t>
-  </si>
-  <si>
-    <t>施工单位联系电话</t>
-  </si>
-  <si>
-    <t>SGDWLXRDH</t>
-  </si>
-  <si>
-    <t>地址</t>
-  </si>
-  <si>
-    <t>DZ</t>
-  </si>
-  <si>
-    <t>备案行驶路线</t>
-  </si>
-  <si>
-    <t>BASSLX</t>
-  </si>
-  <si>
-    <t>建设状态</t>
-  </si>
-  <si>
-    <t>JSZT</t>
-  </si>
-  <si>
-    <r>
+      <t>：无；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
       <t>1</t>
     </r>
     <r>
@@ -1092,12 +1722,51 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>：竣工；</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
+      <t>：有</t>
+    </r>
+  </si>
+  <si>
+    <t>车载摄像头</t>
+  </si>
+  <si>
+    <t>CZSXT</t>
+  </si>
+  <si>
+    <t>车辆定位</t>
+  </si>
+  <si>
+    <t>CLDW1</t>
+  </si>
+  <si>
+    <t>密闭装置</t>
+  </si>
+  <si>
+    <t>MBZZ</t>
+  </si>
+  <si>
+    <t>定位设备编号</t>
+  </si>
+  <si>
+    <t>DWSBBH</t>
+  </si>
+  <si>
+    <t>车辆照片</t>
+  </si>
+  <si>
+    <t>CLZP</t>
+  </si>
+  <si>
+    <r>
+      <t>存放文件路径（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>URL</t>
     </r>
     <r>
       <rPr>
@@ -1107,12 +1776,21 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>：建设中；</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
+      <t>），多个以半角分号分隔</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>见表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">110 </t>
     </r>
     <r>
       <rPr>
@@ -1122,18 +1800,21 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>：停工</t>
-    </r>
-  </si>
-  <si>
-    <t>建筑垃圾产生类型</t>
-  </si>
-  <si>
-    <t>JZLJCSLX</t>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
+      <t>建筑垃圾运输司机主要数据项驾驶员姓名　</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>见表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">110 </t>
     </r>
     <r>
       <rPr>
@@ -1143,12 +1824,305 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>：渣土；</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
+      <t>建筑垃圾运输司机主要数据项驾驶证号　</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：国Ⅲ；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：国Ⅳ；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：国Ⅴ；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：国Ⅵ</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：大型车；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：小型车；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：水泥车；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：平板车</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：合格；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：不合格</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：居民身份证；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+08</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：护照；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：港澳居民来往内地通行证；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：台湾居民来往大陆通行证；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+27</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：外国人永久居留身份证</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>见表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">110 </t>
     </r>
     <r>
       <rPr>
@@ -1158,77 +2132,270 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
+      <t>建筑垃圾运输司机主要数据项驾驶证号　　</t>
+    </r>
+  </si>
+  <si>
+    <t>违章时间</t>
+  </si>
+  <si>
+    <t>WZSJ</t>
+  </si>
+  <si>
+    <t>处罚信息</t>
+  </si>
+  <si>
+    <t>CFXX</t>
+  </si>
+  <si>
+    <t>违章地点</t>
+  </si>
+  <si>
+    <t>WZDD</t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：新建；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：扩建；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：改建；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：迁建；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：恢复</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：资源化处理；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：填埋</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：竣工；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：建设中；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：停工</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：渣土；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
       <t>：装修垃圾；</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>：回填土</t>
     </r>
-  </si>
-  <si>
-    <t>每日清运时间</t>
-  </si>
-  <si>
-    <t>MRQYSJ</t>
-  </si>
-  <si>
-    <t>项目开始日期</t>
-  </si>
-  <si>
-    <t>XMKSSJ</t>
-  </si>
-  <si>
-    <t>项目结束日期</t>
-  </si>
-  <si>
-    <t>XMJSSJ</t>
-  </si>
-  <si>
-    <t>清运备案处置核准证编号</t>
-  </si>
-  <si>
-    <t>QYBACZHZZBH</t>
-  </si>
-  <si>
-    <t>备案行驶路线坐标</t>
-  </si>
-  <si>
-    <t>BYXSLXZB</t>
-  </si>
-  <si>
-    <t>消纳点地址</t>
-  </si>
-  <si>
-    <t>XNDDZ</t>
-  </si>
-  <si>
-    <t>统一社会信用代码</t>
-  </si>
-  <si>
-    <t>TYSHXYDM</t>
-  </si>
-  <si>
-    <t>建成时间</t>
-  </si>
-  <si>
-    <t>JCSJ</t>
-  </si>
-  <si>
-    <t>收纳建筑垃圾种类、再生产品类型</t>
-  </si>
-  <si>
-    <t>SNJZLJZLZSCPLX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1238,618 +2405,172 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>：工程渣土；</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
+      <t>：装修垃圾；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
       <t>：拆迁垃圾；</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>：工程泥浆；</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>：再生混凝土；</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>：再生砂浆；</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>：再生制品；</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>：再生沥青混合料；</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>：再生无机混合料</t>
     </r>
-  </si>
-  <si>
-    <t>工作人员数</t>
-  </si>
-  <si>
-    <t>GZRYS</t>
-  </si>
-  <si>
-    <t>处理场占地面积</t>
-  </si>
-  <si>
-    <t>CLCZDMJ</t>
-  </si>
-  <si>
-    <r>
-      <t>单位：万</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <t>收纳容量</t>
-  </si>
-  <si>
-    <t>SNRL</t>
-  </si>
-  <si>
-    <r>
-      <t>单位：万</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>3</t>
-    </r>
-  </si>
-  <si>
-    <t>运行状态</t>
-  </si>
-  <si>
-    <t>YXZT</t>
-  </si>
-  <si>
-    <r>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：停运；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：正常</t>
-    </r>
-  </si>
-  <si>
-    <t>运营单位</t>
-  </si>
-  <si>
-    <t>YYDW</t>
-  </si>
-  <si>
-    <t>经营年限起</t>
-  </si>
-  <si>
-    <t>JYNXQ</t>
-  </si>
-  <si>
-    <t>经营年限止</t>
-  </si>
-  <si>
-    <t>JYNXZ</t>
-  </si>
-  <si>
-    <t>经营单位法人</t>
-  </si>
-  <si>
-    <t>JYDWFR</t>
-  </si>
-  <si>
-    <t>经营负责人</t>
-  </si>
-  <si>
-    <t>JYFZR</t>
-  </si>
-  <si>
-    <t>经营负责人电话</t>
-  </si>
-  <si>
-    <t>JYFZRDH</t>
-  </si>
-  <si>
-    <t>是否封场</t>
-  </si>
-  <si>
-    <t>SFFC</t>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：否</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：是</t>
-    </r>
-  </si>
-  <si>
-    <t>正式投运日期</t>
-  </si>
-  <si>
-    <t>ZSTYRQ</t>
-  </si>
-  <si>
-    <t>建设规模</t>
-  </si>
-  <si>
-    <t>JSGM</t>
-  </si>
-  <si>
-    <r>
-      <t>单位：万</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>t/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>年</t>
-    </r>
-  </si>
-  <si>
-    <t>处理工艺</t>
-  </si>
-  <si>
-    <t>CLGY</t>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：消纳；</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：资源化利用</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>实际年均处理量</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <t>SJNJCLL</t>
-  </si>
-  <si>
-    <r>
-      <t>单位：万</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>t</t>
-    </r>
-  </si>
-  <si>
-    <t>年均产生量</t>
-  </si>
-  <si>
-    <t>NJCSL</t>
-  </si>
-  <si>
-    <t>设计库容</t>
-  </si>
-  <si>
-    <t>SJKR</t>
-  </si>
-  <si>
-    <t>已用库容</t>
-  </si>
-  <si>
-    <t>YYKL</t>
-  </si>
-  <si>
-    <t>实际库容</t>
-  </si>
-  <si>
-    <t>SHIJKR</t>
-  </si>
-  <si>
-    <t>消纳率或利用率</t>
-  </si>
-  <si>
-    <t>XNLHLYL</t>
-  </si>
-  <si>
-    <t>处理工艺为消纳，显示消纳率；处理工艺为资源化利用，显示利用率</t>
-  </si>
-  <si>
-    <t>建设模式</t>
-  </si>
-  <si>
-    <t>JSMS</t>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：政府购买服务；</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>PPP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>；</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：政府投资</t>
-    </r>
-  </si>
-  <si>
-    <t>车牌号</t>
-  </si>
-  <si>
-    <t>CPH</t>
-  </si>
-  <si>
-    <t>车辆所属企业</t>
-  </si>
-  <si>
-    <t>CLSSQY</t>
-  </si>
-  <si>
-    <t>建筑垃圾产生源标识码</t>
-  </si>
-  <si>
-    <t>JZLJCSYBSM</t>
-  </si>
-  <si>
-    <r>
-      <t>见表</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>113</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>建筑垃圾产生源主要数据项标识码标识码</t>
-    </r>
-  </si>
-  <si>
-    <t>出场时间</t>
-  </si>
-  <si>
-    <t>ZZSJ</t>
-  </si>
-  <si>
-    <t>入场时间</t>
-  </si>
-  <si>
-    <t>XNSJ</t>
-  </si>
-  <si>
-    <t>运输量</t>
-  </si>
-  <si>
-    <t>YSL</t>
-  </si>
-  <si>
-    <t>轨迹对比</t>
-  </si>
-  <si>
-    <t>GJDB</t>
-  </si>
-  <si>
-    <t>轨迹说明</t>
-  </si>
-  <si>
-    <t>GJSM</t>
-  </si>
-  <si>
-    <t>SSQYTYSHX</t>
-  </si>
-  <si>
-    <t>YDM</t>
-  </si>
-  <si>
-    <t>环境卫生-建筑垃圾监管-运输企业表:hjws_jzljjg_assess</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>环境卫生-建筑垃圾监管-运输车辆表:hjws_jzljjg_vehicle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>环境卫生-建筑垃圾监管-运输司机表:hjws_jzljjg_driver</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>环境卫生-建筑垃圾监管-违法处置表:hjws_jzljjg_illegal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>环境卫生-建筑垃圾监管-产生源表:hjws_jzljjg_source</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>环境卫生-建筑垃圾监管-产生源企业关联表:hjws_jzljjg_source_company</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>环境卫生-建筑垃圾监管-处理设施表:hjws_jzljjg_device</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>环境卫生-建筑垃圾监管-监控表:hjws_jzljjg_monitor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>环境卫生-建筑垃圾监管-无主垃圾源表:hjws_jzljjg_no_source</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1857,7 +2578,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1898,6 +2619,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2010,7 +2738,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2040,6 +2768,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2084,10 +2815,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2372,8 +3103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2387,14 +3118,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>314</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
+      <c r="A1" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
     </row>
     <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -2783,117 +3514,103 @@
       <c r="F23" s="4"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="18"/>
-      <c r="E24" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>62</v>
+      <c r="D24" s="19"/>
+      <c r="E24" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="13"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="6" t="s">
-        <v>63</v>
-      </c>
+      <c r="A25" s="14"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="13"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="6" t="s">
-        <v>64</v>
-      </c>
+      <c r="A26" s="14"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="13"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="13"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="13"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="13"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="5" t="s">
-        <v>69</v>
-      </c>
+      <c r="A27" s="14"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="14"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="14"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="14"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+    </row>
+    <row r="31" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="15"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
     </row>
     <row r="32" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>12</v>
@@ -2908,10 +3625,10 @@
     </row>
     <row r="34" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>12</v>
@@ -2920,16 +3637,16 @@
         <v>20</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F34" s="4"/>
     </row>
     <row r="35" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>12</v>
@@ -2944,42 +3661,42 @@
     </row>
     <row r="36" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F36" s="4"/>
     </row>
     <row r="37" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F37" s="4"/>
     </row>
     <row r="38" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>12</v>
@@ -2988,16 +3705,16 @@
         <v>1000</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F38" s="4"/>
     </row>
     <row r="39" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>12</v>
@@ -3006,7 +3723,7 @@
         <v>1000</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F39" s="4"/>
     </row>
@@ -3029,13 +3746,14 @@
       <c r="F40" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A24:A31"/>
     <mergeCell ref="B24:B31"/>
     <mergeCell ref="C24:C31"/>
     <mergeCell ref="D24:D31"/>
     <mergeCell ref="E24:E31"/>
+    <mergeCell ref="F24:F31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3045,10 +3763,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C08E4143-4D73-4535-82EC-32C67007CB9E}">
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3062,14 +3780,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>315</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
+      <c r="A1" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
     </row>
     <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -3112,13 +3830,13 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="11" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="3">
@@ -3127,20 +3845,20 @@
       <c r="E4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="5"/>
+      <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>19</v>
+      <c r="A5" s="11" t="s">
+        <v>266</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="3">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>13</v>
@@ -3148,13 +3866,13 @@
       <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>21</v>
+      <c r="A6" s="11" t="s">
+        <v>80</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="3">
@@ -3165,14 +3883,14 @@
       </c>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>23</v>
+    <row r="7" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>82</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="3">
@@ -3184,533 +3902,516 @@
       <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>25</v>
+      <c r="A8" s="11" t="s">
+        <v>295</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="3">
+        <v>100</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="3">
         <v>40</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="3">
+      <c r="E9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="3">
+        <v>200</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="3">
+        <v>200</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="3">
+        <v>160</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="11"/>
+      <c r="E15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="3">
         <v>20</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="3">
-        <v>200</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="E16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C17" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="D17" s="4"/>
+      <c r="E17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="C18" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="2" t="s">
+      <c r="D18" s="25"/>
+      <c r="E18" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="14"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="14"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+    </row>
+    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="15"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="13" t="s">
+        <v>318</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="C22" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="D22" s="25"/>
+      <c r="E22" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="14"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="14"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+    </row>
+    <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="15"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>321</v>
+      </c>
+      <c r="C26" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="4"/>
-    </row>
-    <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="2" t="s">
+      <c r="D26" s="25"/>
+      <c r="E26" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="15"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+    </row>
+    <row r="28" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="C28" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="2" t="s">
+      <c r="D28" s="4"/>
+      <c r="E28" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="C29" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="4"/>
-    </row>
-    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="3">
-        <v>160</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" s="4"/>
-    </row>
-    <row r="18" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="4"/>
-    </row>
-    <row r="19" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="4"/>
-    </row>
-    <row r="20" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="3">
-        <v>200</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="3">
-        <v>200</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="4"/>
-    </row>
-    <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" s="4"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="C24" s="18" t="s">
+      <c r="D29" s="4"/>
+      <c r="E29" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="C30" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="18"/>
-      <c r="E24" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="13"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="13"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="6" t="s">
+      <c r="D30" s="4"/>
+      <c r="E30" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="3">
+        <v>20</v>
+      </c>
+      <c r="E32" s="3" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="13"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="13"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="13"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="13"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D32" s="4"/>
-      <c r="E32" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>74</v>
+      <c r="F32" s="4"/>
+    </row>
+    <row r="33" spans="1:6" ht="46.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="11" t="s">
+        <v>333</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C33" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="C33" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D33" s="3">
-        <v>40</v>
+        <v>500</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F33" s="4"/>
+        <v>64</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>335</v>
+      </c>
     </row>
     <row r="34" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="11" t="s">
         <v>76</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D34" s="3">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F34" s="4"/>
     </row>
     <row r="35" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="11" t="s">
         <v>78</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D35" s="3">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>80</v>
+    <row r="36" spans="1:6" ht="46.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="11" t="s">
+        <v>84</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D36" s="4"/>
+        <v>85</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" s="3">
+        <v>40</v>
+      </c>
       <c r="E36" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F36" s="4"/>
-    </row>
-    <row r="37" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>82</v>
+        <v>13</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="46.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="11" t="s">
+        <v>103</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D37" s="2"/>
+        <v>104</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="3">
+        <v>40</v>
+      </c>
       <c r="E37" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F37" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>337</v>
+      </c>
     </row>
     <row r="38" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>84</v>
+      <c r="A38" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C38" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D38" s="3">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="F38" s="4"/>
     </row>
-    <row r="39" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D39" s="3">
-        <v>1000</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F39" s="4"/>
-    </row>
-    <row r="40" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D40" s="3">
-        <v>30</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F40" s="4"/>
-    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="19">
+    <mergeCell ref="F18:F21"/>
+    <mergeCell ref="F22:F25"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="E18:E21"/>
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A24:A31"/>
-    <mergeCell ref="B24:B31"/>
-    <mergeCell ref="C24:C31"/>
-    <mergeCell ref="D24:D31"/>
-    <mergeCell ref="E24:E31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3723,7 +4424,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="F12" sqref="F12:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3737,14 +4438,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>316</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
+      <c r="A1" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
     </row>
     <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -3806,10 +4507,10 @@
     </row>
     <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>12</v>
@@ -3824,10 +4525,10 @@
     </row>
     <row r="6" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>12</v>
@@ -3842,10 +4543,10 @@
     </row>
     <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>12</v>
@@ -3854,16 +4555,16 @@
         <v>1000</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>12</v>
@@ -3872,16 +4573,16 @@
         <v>1000</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>12</v>
@@ -3896,10 +4597,10 @@
     </row>
     <row r="10" spans="1:6" ht="36" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>12</v>
@@ -3911,15 +4612,15 @@
         <v>13</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>14</v>
@@ -3930,72 +4631,64 @@
       </c>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" spans="1:6" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="15">
+    <row r="12" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="16">
         <v>60</v>
       </c>
-      <c r="E12" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>101</v>
+      <c r="E12" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="13"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="34.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="13"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="34.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="13"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="5" t="s">
-        <v>105</v>
-      </c>
+      <c r="A13" s="14"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="14"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="14"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+    </row>
+    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="15"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
     </row>
     <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>12</v>
@@ -4010,10 +4703,10 @@
     </row>
     <row r="18" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>12</v>
@@ -4025,15 +4718,15 @@
         <v>13</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>12</v>
@@ -4048,10 +4741,10 @@
     </row>
     <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>16</v>
@@ -4064,10 +4757,10 @@
     </row>
     <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>16</v>
@@ -4080,10 +4773,10 @@
     </row>
     <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>12</v>
@@ -4098,10 +4791,10 @@
     </row>
     <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>12</v>
@@ -4116,10 +4809,10 @@
     </row>
     <row r="24" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>12</v>
@@ -4153,13 +4846,14 @@
       <c r="F25" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A12:A16"/>
     <mergeCell ref="B12:B16"/>
     <mergeCell ref="C12:C16"/>
     <mergeCell ref="D12:D16"/>
     <mergeCell ref="E12:E16"/>
+    <mergeCell ref="F12:F16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4169,10 +4863,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A3A0D25-E07C-4BBD-B146-5E4AC4E8FC7F}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="A4" sqref="A4:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4186,14 +4880,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
+      <c r="A1" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
     </row>
     <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -4236,13 +4930,13 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="11" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="3">
@@ -4251,88 +4945,88 @@
       <c r="E4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="4"/>
+      <c r="F4" s="11"/>
     </row>
     <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>88</v>
+      <c r="A5" s="11" t="s">
+        <v>266</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C5" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="3">
+        <v>10</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="11"/>
+    </row>
+    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="3">
         <v>100</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="3">
+      <c r="E6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="11"/>
+    </row>
+    <row r="7" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="3">
         <v>18</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="E7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="11"/>
+    </row>
+    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="3">
+        <v>20</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="11"/>
+    </row>
+    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="3">
-        <v>1000</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="3">
-        <v>1000</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="3">
@@ -4341,274 +5035,133 @@
       <c r="E9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:6" ht="36" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>94</v>
+      <c r="F9" s="11"/>
+    </row>
+    <row r="10" spans="1:6" ht="46.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>103</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C10" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="3">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>96</v>
+        <v>342</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>97</v>
+      <c r="A11" s="11" t="s">
+        <v>343</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>14</v>
+        <v>344</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>48</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="5"/>
-    </row>
-    <row r="12" spans="1:6" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="15">
-        <v>60</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="13"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="34.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="13"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="34.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="13"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="3">
-        <v>50</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" s="5"/>
-    </row>
-    <row r="18" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="3">
-        <v>50</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="3">
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="3">
+        <v>200</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="11"/>
+      <c r="E15" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="3">
         <v>30</v>
       </c>
-      <c r="E19" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="4"/>
-    </row>
-    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" s="4"/>
-    </row>
-    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="4"/>
-    </row>
-    <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="3">
-        <v>20</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="4"/>
-    </row>
-    <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="3">
-        <v>20</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" s="4"/>
-    </row>
-    <row r="24" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" s="3">
-        <v>200</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="3">
-        <v>30</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="4"/>
+      <c r="E16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="C12:C16"/>
-    <mergeCell ref="D12:D16"/>
-    <mergeCell ref="E12:E16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4620,8 +5173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07B6B28A-DAB9-40F0-83B0-00E7EC1032CC}">
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52:F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4635,14 +5188,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
+      <c r="A1" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
     </row>
     <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -4686,10 +5239,10 @@
     </row>
     <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>12</v>
@@ -4722,10 +5275,10 @@
     </row>
     <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>12</v>
@@ -4740,10 +5293,10 @@
     </row>
     <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>12</v>
@@ -4757,151 +5310,141 @@
       <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="C8" s="18" t="s">
+      <c r="A8" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="24"/>
-      <c r="E8" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>131</v>
+      <c r="D8" s="25"/>
+      <c r="E8" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="13"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="6" t="s">
-        <v>132</v>
-      </c>
+      <c r="A9" s="14"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="13"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="6" t="s">
-        <v>133</v>
-      </c>
+      <c r="A10" s="14"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="13"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="6" t="s">
-        <v>134</v>
-      </c>
+      <c r="A11" s="14"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
     </row>
     <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="20"/>
+      <c r="A12" s="15"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="21"/>
       <c r="D12" s="26"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="5" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="C13" s="18" t="s">
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+    </row>
+    <row r="13" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="C13" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="24"/>
-      <c r="E13" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>138</v>
+      <c r="D13" s="25"/>
+      <c r="E13" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="20"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="21"/>
       <c r="D14" s="26"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="5" t="s">
-        <v>139</v>
-      </c>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
     </row>
     <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>15</v>
@@ -4911,40 +5454,40 @@
         <v>13</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>33</v>
@@ -4952,154 +5495,154 @@
     </row>
     <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D27" s="7"/>
       <c r="E27" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D28" s="7"/>
       <c r="E28" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>12</v>
@@ -5108,16 +5651,16 @@
         <v>100</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F29" s="4"/>
     </row>
     <row r="30" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>12</v>
@@ -5126,48 +5669,48 @@
         <v>50</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F30" s="4"/>
     </row>
     <row r="31" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>48</v>
       </c>
       <c r="D31" s="7"/>
       <c r="E31" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F31" s="5"/>
     </row>
     <row r="32" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>48</v>
       </c>
       <c r="D32" s="7"/>
       <c r="E32" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F32" s="5"/>
     </row>
     <row r="33" spans="1:6" ht="46.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>12</v>
@@ -5179,15 +5722,15 @@
         <v>13</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>14</v>
@@ -5200,10 +5743,10 @@
     </row>
     <row r="35" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>14</v>
@@ -5216,10 +5759,10 @@
     </row>
     <row r="36" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>12</v>
@@ -5236,10 +5779,10 @@
     </row>
     <row r="37" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>12</v>
@@ -5254,10 +5797,10 @@
     </row>
     <row r="38" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>12</v>
@@ -5272,10 +5815,10 @@
     </row>
     <row r="39" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>12</v>
@@ -5290,10 +5833,10 @@
     </row>
     <row r="40" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>12</v>
@@ -5302,16 +5845,16 @@
         <v>200</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F40" s="7"/>
     </row>
     <row r="41" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>12</v>
@@ -5320,16 +5863,16 @@
         <v>40</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F41" s="7"/>
     </row>
     <row r="42" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>12</v>
@@ -5338,16 +5881,16 @@
         <v>20</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F42" s="7"/>
     </row>
     <row r="43" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>12</v>
@@ -5362,42 +5905,42 @@
     </row>
     <row r="44" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F44" s="4"/>
     </row>
     <row r="45" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D45" s="7"/>
       <c r="E45" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F45" s="4"/>
     </row>
     <row r="46" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>12</v>
@@ -5412,10 +5955,10 @@
     </row>
     <row r="47" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>12</v>
@@ -5424,16 +5967,16 @@
         <v>1000</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F47" s="7"/>
     </row>
     <row r="48" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>12</v>
@@ -5442,92 +5985,84 @@
         <v>1000</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F48" s="7"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="B49" s="15" t="s">
-        <v>206</v>
-      </c>
-      <c r="C49" s="18" t="s">
+      <c r="A49" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="B49" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="C49" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D49" s="24"/>
-      <c r="E49" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F49" s="6" t="s">
-        <v>207</v>
+      <c r="D49" s="25"/>
+      <c r="E49" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F49" s="16" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="13"/>
-      <c r="B50" s="16"/>
-      <c r="C50" s="19"/>
-      <c r="D50" s="25"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="6" t="s">
-        <v>208</v>
-      </c>
+      <c r="A50" s="14"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="17"/>
     </row>
     <row r="51" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="14"/>
-      <c r="B51" s="17"/>
-      <c r="C51" s="20"/>
+      <c r="A51" s="15"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="21"/>
       <c r="D51" s="26"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="5" t="s">
-        <v>209</v>
-      </c>
+      <c r="E51" s="18"/>
+      <c r="F51" s="18"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="B52" s="15" t="s">
-        <v>211</v>
-      </c>
-      <c r="C52" s="18" t="s">
+      <c r="A52" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="B52" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="C52" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D52" s="24"/>
-      <c r="E52" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F52" s="6" t="s">
-        <v>212</v>
+      <c r="D52" s="25"/>
+      <c r="E52" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F52" s="16" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" s="13"/>
-      <c r="B53" s="16"/>
-      <c r="C53" s="19"/>
-      <c r="D53" s="25"/>
-      <c r="E53" s="16"/>
-      <c r="F53" s="6" t="s">
-        <v>213</v>
-      </c>
+      <c r="A53" s="14"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="27"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="17"/>
     </row>
     <row r="54" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="14"/>
-      <c r="B54" s="17"/>
-      <c r="C54" s="20"/>
+      <c r="A54" s="15"/>
+      <c r="B54" s="18"/>
+      <c r="C54" s="21"/>
       <c r="D54" s="26"/>
-      <c r="E54" s="17"/>
-      <c r="F54" s="5" t="s">
-        <v>214</v>
-      </c>
+      <c r="E54" s="18"/>
+      <c r="F54" s="18"/>
     </row>
     <row r="55" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>12</v>
@@ -5542,10 +6077,10 @@
     </row>
     <row r="56" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>14</v>
@@ -5558,10 +6093,10 @@
     </row>
     <row r="57" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>14</v>
@@ -5574,10 +6109,10 @@
     </row>
     <row r="58" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
-        <v>221</v>
+        <v>200</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>12</v>
@@ -5592,10 +6127,10 @@
     </row>
     <row r="59" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>12</v>
@@ -5604,16 +6139,16 @@
         <v>10000</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F59" s="4"/>
     </row>
     <row r="60" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>226</v>
+        <v>205</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>12</v>
@@ -5645,7 +6180,19 @@
       <c r="F61" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="25">
+    <mergeCell ref="F49:F51"/>
+    <mergeCell ref="F52:F54"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="D49:D51"/>
+    <mergeCell ref="E49:E51"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="C52:C54"/>
+    <mergeCell ref="D52:D54"/>
+    <mergeCell ref="E52:E54"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="B13:B14"/>
@@ -5657,16 +6204,8 @@
     <mergeCell ref="C8:C12"/>
     <mergeCell ref="D8:D12"/>
     <mergeCell ref="E8:E12"/>
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="C52:C54"/>
-    <mergeCell ref="D52:D54"/>
-    <mergeCell ref="E52:E54"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="D49:D51"/>
-    <mergeCell ref="E49:E51"/>
+    <mergeCell ref="F8:F12"/>
+    <mergeCell ref="F13:F14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5693,14 +6232,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
+      <c r="A1" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
     </row>
     <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -5762,10 +6301,10 @@
     </row>
     <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>12</v>
@@ -5780,10 +6319,10 @@
     </row>
     <row r="6" spans="1:6" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>12</v>
@@ -5798,10 +6337,10 @@
     </row>
     <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>12</v>
@@ -5810,16 +6349,16 @@
         <v>1000</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>12</v>
@@ -5828,16 +6367,16 @@
         <v>1000</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>12</v>
@@ -5852,10 +6391,10 @@
     </row>
     <row r="10" spans="1:6" ht="36" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>12</v>
@@ -5867,15 +6406,15 @@
         <v>13</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>14</v>
@@ -5887,71 +6426,71 @@
       <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:6" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="15">
+      <c r="A12" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="16">
         <v>60</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="16" t="s">
         <v>13</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="13"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
       <c r="F13" s="6" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="34.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="13"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
       <c r="F14" s="6" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="34.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="13"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
       <c r="F15" s="6" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
       <c r="F16" s="5" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>12</v>
@@ -5966,10 +6505,10 @@
     </row>
     <row r="18" spans="1:6" ht="47.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>12</v>
@@ -5981,15 +6520,15 @@
         <v>13</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>12</v>
@@ -6004,10 +6543,10 @@
     </row>
     <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>16</v>
@@ -6020,10 +6559,10 @@
     </row>
     <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>16</v>
@@ -6036,10 +6575,10 @@
     </row>
     <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>12</v>
@@ -6054,10 +6593,10 @@
     </row>
     <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>12</v>
@@ -6072,10 +6611,10 @@
     </row>
     <row r="24" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>12</v>
@@ -6127,8 +6666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86AA5BE7-0BE9-4C01-843A-55FED1CF0535}">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10:F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6142,14 +6681,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>320</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
+      <c r="A1" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
     </row>
     <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -6193,10 +6732,10 @@
     </row>
     <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>12</v>
@@ -6229,10 +6768,10 @@
     </row>
     <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>12</v>
@@ -6247,10 +6786,10 @@
     </row>
     <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>227</v>
+        <v>206</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>228</v>
+        <v>207</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>12</v>
@@ -6265,10 +6804,10 @@
     </row>
     <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>229</v>
+        <v>208</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>230</v>
+        <v>209</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>14</v>
@@ -6300,109 +6839,93 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="12" t="s">
-        <v>231</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="C10" s="18" t="s">
+      <c r="A10" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="C10" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="24"/>
-      <c r="E10" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>233</v>
+      <c r="D10" s="25"/>
+      <c r="E10" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="13"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="6" t="s">
-        <v>213</v>
-      </c>
+      <c r="A11" s="14"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="13"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="6" t="s">
-        <v>234</v>
-      </c>
+      <c r="A12" s="14"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="13"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="6" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="13"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="6" t="s">
-        <v>236</v>
-      </c>
+      <c r="A13" s="14"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="14"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="13"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="6" t="s">
-        <v>237</v>
-      </c>
+      <c r="A15" s="14"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="13"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="6" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="13"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="6" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="20"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="14"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+    </row>
+    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="15"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="21"/>
       <c r="D18" s="26"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="5" t="s">
-        <v>240</v>
-      </c>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
     </row>
     <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>15</v>
@@ -6412,67 +6935,67 @@
         <v>13</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>241</v>
+        <v>212</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>242</v>
+        <v>213</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>16</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F20" s="4"/>
     </row>
     <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>243</v>
+        <v>214</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>244</v>
+        <v>215</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>245</v>
+        <v>216</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>246</v>
+        <v>217</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>247</v>
+        <v>218</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>248</v>
+        <v>219</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>249</v>
+        <v>220</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>250</v>
+        <v>221</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>16</v>
@@ -6482,15 +7005,15 @@
         <v>13</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>251</v>
+        <v>222</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>252</v>
+        <v>223</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>253</v>
+        <v>224</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>12</v>
@@ -6499,16 +7022,16 @@
         <v>100</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F24" s="4"/>
     </row>
     <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>254</v>
+        <v>225</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>255</v>
+        <v>226</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>14</v>
@@ -6521,10 +7044,10 @@
     </row>
     <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>256</v>
+        <v>227</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>257</v>
+        <v>228</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>14</v>
@@ -6537,10 +7060,10 @@
     </row>
     <row r="27" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>258</v>
+        <v>229</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>259</v>
+        <v>230</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>12</v>
@@ -6555,10 +7078,10 @@
     </row>
     <row r="28" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>12</v>
@@ -6567,16 +7090,16 @@
         <v>20</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F28" s="4"/>
     </row>
     <row r="29" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>260</v>
+        <v>231</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>261</v>
+        <v>232</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>12</v>
@@ -6591,10 +7114,10 @@
     </row>
     <row r="30" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>262</v>
+        <v>233</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>263</v>
+        <v>234</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>12</v>
@@ -6609,10 +7132,10 @@
     </row>
     <row r="31" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>12</v>
@@ -6627,42 +7150,42 @@
     </row>
     <row r="32" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F32" s="4"/>
     </row>
     <row r="33" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D33" s="7"/>
       <c r="E33" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F33" s="4"/>
     </row>
     <row r="34" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>12</v>
@@ -6671,16 +7194,16 @@
         <v>1000</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F34" s="4"/>
     </row>
     <row r="35" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>264</v>
+        <v>235</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>265</v>
+        <v>236</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>16</v>
@@ -6690,15 +7213,15 @@
         <v>13</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>266</v>
+        <v>237</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>267</v>
+        <v>238</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>14</v>
@@ -6711,10 +7234,10 @@
     </row>
     <row r="37" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>269</v>
+        <v>240</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>270</v>
+        <v>241</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>15</v>
@@ -6724,181 +7247,181 @@
         <v>13</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="12" t="s">
-        <v>272</v>
-      </c>
-      <c r="B38" s="15" t="s">
-        <v>273</v>
-      </c>
-      <c r="C38" s="18" t="s">
+      <c r="A38" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="C38" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D38" s="24"/>
-      <c r="E38" s="15" t="s">
+      <c r="D38" s="25"/>
+      <c r="E38" s="16" t="s">
         <v>13</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>274</v>
+        <v>245</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="14"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="20"/>
+      <c r="A39" s="15"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="21"/>
       <c r="D39" s="26"/>
-      <c r="E39" s="17"/>
+      <c r="E39" s="18"/>
       <c r="F39" s="5" t="s">
-        <v>275</v>
+        <v>246</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>276</v>
+        <v>247</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>277</v>
+        <v>248</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D40" s="7"/>
       <c r="E40" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>278</v>
+        <v>249</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>279</v>
+        <v>250</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>280</v>
+        <v>251</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D41" s="7"/>
       <c r="E41" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>278</v>
+        <v>249</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>281</v>
+        <v>252</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>282</v>
+        <v>253</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D42" s="7"/>
       <c r="E42" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>248</v>
+        <v>219</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
-        <v>283</v>
+        <v>254</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>284</v>
+        <v>255</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D43" s="7"/>
       <c r="E43" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>248</v>
+        <v>219</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>285</v>
+        <v>256</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>286</v>
+        <v>257</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D44" s="7"/>
       <c r="E44" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>248</v>
+        <v>219</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="68.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
-        <v>287</v>
+        <v>258</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>288</v>
+        <v>259</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>289</v>
+        <v>260</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A46" s="12" t="s">
-        <v>290</v>
-      </c>
-      <c r="B46" s="15" t="s">
-        <v>291</v>
-      </c>
-      <c r="C46" s="18" t="s">
+      <c r="A46" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="B46" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="C46" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D46" s="24"/>
-      <c r="E46" s="15" t="s">
-        <v>72</v>
+      <c r="D46" s="25"/>
+      <c r="E46" s="16" t="s">
+        <v>64</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>292</v>
+        <v>263</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="13"/>
-      <c r="B47" s="16"/>
-      <c r="C47" s="19"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="16"/>
+      <c r="A47" s="14"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="27"/>
+      <c r="E47" s="17"/>
       <c r="F47" s="6" t="s">
-        <v>293</v>
+        <v>264</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="14"/>
-      <c r="B48" s="17"/>
-      <c r="C48" s="20"/>
+      <c r="A48" s="15"/>
+      <c r="B48" s="18"/>
+      <c r="C48" s="21"/>
       <c r="D48" s="26"/>
-      <c r="E48" s="17"/>
+      <c r="E48" s="18"/>
       <c r="F48" s="5" t="s">
-        <v>294</v>
+        <v>265</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -6920,7 +7443,12 @@
       <c r="F49" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="17">
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="D46:D48"/>
+    <mergeCell ref="E46:E48"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A38:A39"/>
     <mergeCell ref="B38:B39"/>
@@ -6932,11 +7460,7 @@
     <mergeCell ref="C10:C18"/>
     <mergeCell ref="D10:D18"/>
     <mergeCell ref="E10:E18"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="D46:D48"/>
-    <mergeCell ref="E46:E48"/>
+    <mergeCell ref="F10:F18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6963,14 +7487,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>321</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
+      <c r="A1" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
     </row>
     <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -7014,10 +7538,10 @@
     </row>
     <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>295</v>
+        <v>266</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>296</v>
+        <v>267</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>12</v>
@@ -7050,10 +7574,10 @@
     </row>
     <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>297</v>
+        <v>268</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>298</v>
+        <v>269</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>12</v>
@@ -7068,10 +7592,10 @@
     </row>
     <row r="7" spans="1:6" ht="46.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>299</v>
+        <v>270</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>300</v>
+        <v>271</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>12</v>
@@ -7083,15 +7607,15 @@
         <v>13</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>301</v>
+        <v>272</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="46.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>12</v>
@@ -7103,15 +7627,15 @@
         <v>13</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>302</v>
+        <v>273</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>303</v>
+        <v>274</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>48</v>
@@ -7124,10 +7648,10 @@
     </row>
     <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>304</v>
+        <v>275</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>305</v>
+        <v>276</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>48</v>
@@ -7140,10 +7664,10 @@
     </row>
     <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>306</v>
+        <v>277</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>307</v>
+        <v>278</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>15</v>
@@ -7153,15 +7677,15 @@
         <v>13</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>308</v>
+        <v>279</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>309</v>
+        <v>280</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>12</v>
@@ -7170,16 +7694,16 @@
         <v>10000</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>310</v>
+        <v>281</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>311</v>
+        <v>282</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>12</v>
@@ -7188,36 +7712,36 @@
         <v>1000</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="12" t="s">
-        <v>90</v>
+      <c r="A14" s="13" t="s">
+        <v>82</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="15">
+        <v>283</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="16">
         <v>18</v>
       </c>
-      <c r="E14" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="F14" s="24"/>
+      <c r="E14" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" s="25"/>
     </row>
     <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
+      <c r="A15" s="15"/>
       <c r="B15" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
+        <v>284</v>
+      </c>
+      <c r="C15" s="21"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
       <c r="F15" s="26"/>
     </row>
     <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -7257,7 +7781,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3F32659-B1D8-4010-8B6E-2B07DD120BA2}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
@@ -7272,14 +7796,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>322</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
+      <c r="A1" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
     </row>
     <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -7323,10 +7847,10 @@
     </row>
     <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>295</v>
+        <v>266</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>296</v>
+        <v>267</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>12</v>
@@ -7359,10 +7883,10 @@
     </row>
     <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>297</v>
+        <v>268</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>298</v>
+        <v>269</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>12</v>
@@ -7377,10 +7901,10 @@
     </row>
     <row r="7" spans="1:6" ht="46.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>299</v>
+        <v>270</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>300</v>
+        <v>271</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>12</v>
@@ -7392,15 +7916,15 @@
         <v>13</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>301</v>
+        <v>272</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="46.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>12</v>
@@ -7412,15 +7936,15 @@
         <v>13</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>302</v>
+        <v>273</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>303</v>
+        <v>274</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>48</v>
@@ -7433,10 +7957,10 @@
     </row>
     <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>304</v>
+        <v>275</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>305</v>
+        <v>276</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>48</v>
@@ -7449,10 +7973,10 @@
     </row>
     <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>306</v>
+        <v>277</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>307</v>
+        <v>278</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>15</v>
@@ -7462,15 +7986,15 @@
         <v>13</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>308</v>
+        <v>279</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>309</v>
+        <v>280</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>12</v>
@@ -7479,16 +8003,16 @@
         <v>10000</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>310</v>
+        <v>281</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>311</v>
+        <v>282</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>12</v>
@@ -7497,36 +8021,36 @@
         <v>1000</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="12" t="s">
-        <v>90</v>
+      <c r="A14" s="13" t="s">
+        <v>82</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="15">
+        <v>283</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="16">
         <v>18</v>
       </c>
-      <c r="E14" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="F14" s="24"/>
+      <c r="E14" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" s="25"/>
     </row>
     <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
+      <c r="A15" s="15"/>
       <c r="B15" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
+        <v>284</v>
+      </c>
+      <c r="C15" s="21"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
       <c r="F15" s="26"/>
     </row>
     <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
